--- a/pred_ohlcv/54_21/2020-01-16 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 HYC ohlcv.xlsx
@@ -1666,7 +1666,7 @@
         <v>-8078418.221799998</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-8134633.163299997</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-8134633.163299997</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-7883300.640599998</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-7883300.640599998</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-7882303.709899997</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-7901629.228299998</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-7901629.228299998</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-7982269.228299998</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-7982269.228299998</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-8034362.617599998</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-7386585.676199998</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-8057310.656399998</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-7949412.992399998</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-7931787.283599998</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-8031469.424299998</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-7991639.424299998</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-8109537.820099998</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-9055450.622699998</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-9054565.140799999</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-9054565.140799999</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-9834528.313499998</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-9834528.313499998</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-9803228.313499998</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-9806310.405199999</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-9806310.405199999</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-10652300.1381</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-11013472.2467</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-10608232.4874</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-13035958.0808</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-12032711.6284</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-10786421.6131</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-10049670.9356</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-10020383.5854</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-7341074.165999997</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-7353740.176899998</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-7327266.871799997</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-7326999.871799997</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-7420346.512899997</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-7420346.512899997</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-7492783.237299996</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-7492783.237299996</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-7580283.361499997</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-7387655.750299997</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-7574760.631999996</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-7568760.631999996</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-7558373.372899996</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-7691002.552199996</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-7685711.502999996</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-6740962.361899996</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-6731215.803899996</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-5692805.716299997</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-7010019.852199997</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-7410339.237399997</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-7410339.237399997</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-7410339.237399997</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-7466339.237399997</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-7092941.176499997</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-7103721.818199997</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-7103721.818199997</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-5290969.761799997</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-5311408.187299997</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-7010341.281799996</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-7010341.281799996</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-7011420.253599997</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-6960420.708299996</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-7064031.384099997</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-7062534.453399996</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-5875965.822699996</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-5911468.008599996</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-5881188.008599996</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-5881188.008599996</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-5781188.008599996</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-5328553.554999996</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-5333131.920699996</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-5391543.688199996</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-5433238.893199996</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-5038078.815199996</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4678218.815199996</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-4707236.155599996</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-4706065.725599997</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4647005.725599997</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4709404.855599997</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-4609404.855599997</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4609404.855599997</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-4724601.612599997</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-4669541.612599997</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-4669541.612599997</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-4707756.031499997</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-4707756.031499997</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-5876636.457699997</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-5841199.967599997</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-5850065.410399998</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-5408321.900499998</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-5408321.900499998</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-5455151.510799997</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-15448519.2860192</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-15114068.5253192</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 HYC ohlcv.xlsx
@@ -1770,7 +1770,7 @@
         <v>-8134633.163299997</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-8025096.163299997</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-8084506.063499997</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-7883300.640599998</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-7883300.640599998</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-7882303.709899997</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-7901629.228299998</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-7901629.228299998</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-7982269.228299998</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-7982269.228299998</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-8034362.617599998</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-7386585.676199998</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-8057310.656399998</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-7949412.992399998</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-7931787.283599998</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-8031469.424299998</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-7991639.424299998</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-8109537.820099998</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-9055450.622699998</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-9054565.140799999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-9054565.140799999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-9834528.313499998</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-9834528.313499998</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-9803228.313499998</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-9806310.405199999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-9806310.405199999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-10652300.1381</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-11013472.2467</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-10608232.4874</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-13035958.0808</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-12032711.6284</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-10874622.6955</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-10093387.3286</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-9985512.940599997</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-9934242.940599997</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-10049670.9356</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-10020383.5854</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-10039933.6575</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-9990335.141599998</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-10774366.1525</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-10310835.3617</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-10119859.9605</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-10096407.8858</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-10157545.9192</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-10157545.9192</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-10766795.137</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-10766795.137</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-7654129.126099998</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-7341074.165999997</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-7353740.176899998</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-7327266.871799997</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-7326999.871799997</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-7420346.512899997</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-7420346.512899997</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-7492783.237299996</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-7492783.237299996</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-7580283.361499997</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-7387655.750299997</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-7574760.631999996</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-7568760.631999996</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-7558373.372899996</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-7691002.552199996</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-7685711.502999996</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-6740962.361899996</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-6731215.803899996</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-5692805.716299997</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-7010019.852199997</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-7410339.237399997</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-7410339.237399997</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-7410339.237399997</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-7466339.237399997</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-7092941.176499997</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-7103721.818199997</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-7103721.818199997</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-5290969.761799997</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-5311408.187299997</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-6615527.862299996</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-7010341.281799996</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-7011420.253599997</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-6960420.708299996</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-7064031.384099997</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-7062534.453399996</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-5875965.822699996</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-5911468.008599996</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-5881188.008599996</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-5881188.008599996</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-5781188.008599996</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-5328553.554999996</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-5333131.920699996</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-5391543.688199996</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-5433238.893199996</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-5038078.815199996</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4678218.815199996</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-4707236.155599996</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-4706065.725599997</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4647005.725599997</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4709404.855599997</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-4609404.855599997</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4609404.855599997</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-4724601.612599997</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-4669541.612599997</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-4669541.612599997</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-4707756.031499997</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-4707756.031499997</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-5876636.457699997</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-5841199.967599997</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-5901199.967599997</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-10607640.24759999</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-15444002.40529999</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-15452482.29879999</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-15482284.45699999</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-15608210.35299999</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-16177521.81669999</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-16372853.58921921</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-16340411.9174192</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-16340411.9174192</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-16366025.19871921</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-16398354.62281921</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-16412096.33431921</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-15194869.53551921</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-15469869.53551921</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-15469869.53551921</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
